--- a/cmu/SurePark/SurePark_Database.xlsx
+++ b/cmu/SurePark/SurePark_Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9180" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,22 @@
   </si>
   <si>
     <t>단위는 달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{userEmail:'gildong@lge.com'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F7" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="B2:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F8" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="B2:F8"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name" dataDxfId="9"/>
     <tableColumn id="2" name="type" dataDxfId="8"/>
@@ -925,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1016,15 +1032,29 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1266,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/cmu/SurePark/SurePark_Database.xlsx
+++ b/cmu/SurePark/SurePark_Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,18 @@
   </si>
   <si>
     <t>{userEmail:'gildong@lge.com'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,8 +625,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F8" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="B2:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F9" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="B2:F9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name" dataDxfId="9"/>
     <tableColumn id="2" name="type" dataDxfId="8"/>
@@ -941,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1056,6 +1068,17 @@
       </c>
       <c r="E8" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/cmu/SurePark/SurePark_Database.xlsx
+++ b/cmu/SurePark/SurePark_Database.xlsx
@@ -956,7 +956,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/cmu/SurePark/SurePark_Database.xlsx
+++ b/cmu/SurePark/SurePark_Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9180"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slotStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +115,6 @@
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{slotStatus:{1:'open', 2:'occupied', 3:'broken', 4:'reserved'}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">슬롯의 각각의 상태 및 업데이트 날짜를 표시해도 괜찮을 듯. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usingGarage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,6 +445,30 @@
   </si>
   <si>
     <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garageNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{garageNumber:1234}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4자리 숫자를 저장한다. (ex.1001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +651,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F14" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B2:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F15" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B2:F15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name" dataDxfId="4"/>
     <tableColumn id="2" name="type" dataDxfId="3"/>
@@ -955,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -983,12 +995,12 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1002,7 +1014,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1044,41 +1056,41 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1104,8 +1116,8 @@
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.75" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1122,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -1141,169 +1153,183 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F15" t="s">
         <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1346,187 +1372,187 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/cmu/SurePark/SurePark_Database.xlsx
+++ b/cmu/SurePark/SurePark_Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>JSON Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 slot의 상태를 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{updateTime:{1:Date()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usingGarage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,22 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{status:open, updateDate:Date()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{status:occupied, updateDate:Date()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{status:broken, updateDate:Date()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{status:reserved, updateDate:Date()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>registerationTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,22 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slot1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실제 parking한 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,7 +428,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slotN</t>
+    <t>slotStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 slot의 상태를 보여준다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{slotStatus: {"Open", "Reserved", "Broken", "Occupied"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{updateTime:{Date("2016:06:21-15:23:00"), Date(), Date(), Date()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F15" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B2:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F11" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B2:F11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name" dataDxfId="4"/>
     <tableColumn id="2" name="type" dataDxfId="3"/>
@@ -995,12 +967,12 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1014,7 +986,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1056,41 +1028,41 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -1153,19 +1125,19 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -1176,7 +1148,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -1184,152 +1156,96 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F11" t="s">
         <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1372,187 +1288,187 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/cmu/SurePark/SurePark_Database.xlsx
+++ b/cmu/SurePark/SurePark_Database.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\SA\IChallenge\IChallenge\cmu\SurePark\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9180" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -166,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">will use this value when the garage is not available. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>garageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +436,10 @@
   </si>
   <si>
     <t xml:space="preserve">same the user id in users collection </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">it will use this value when the garage is not available. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,24 +523,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -590,6 +577,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -613,30 +618,33 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:F9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B2:F9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="name" dataDxfId="5"/>
-    <tableColumn id="2" name="type" dataDxfId="4"/>
-    <tableColumn id="3" name="description" dataDxfId="3"/>
-    <tableColumn id="4" name="example" dataDxfId="2"/>
-    <tableColumn id="5" name="etc" dataDxfId="1"/>
+    <tableColumn id="1" name="name" dataDxfId="12"/>
+    <tableColumn id="2" name="type" dataDxfId="11"/>
+    <tableColumn id="3" name="description" dataDxfId="10"/>
+    <tableColumn id="4" name="example" dataDxfId="9"/>
+    <tableColumn id="5" name="etc" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F11" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F11" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:F11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="name" dataDxfId="12"/>
-    <tableColumn id="2" name="type" dataDxfId="11"/>
+    <tableColumn id="1" name="name" dataDxfId="6"/>
+    <tableColumn id="2" name="type" dataDxfId="5"/>
     <tableColumn id="3" name="description"/>
     <tableColumn id="4" name="example"/>
     <tableColumn id="5" name="etc"/>
@@ -646,14 +654,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B2:F14" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B2:F14" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:F14"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="name" dataDxfId="9"/>
-    <tableColumn id="2" name="type" dataDxfId="8"/>
+    <tableColumn id="1" name="name" dataDxfId="3"/>
+    <tableColumn id="2" name="type" dataDxfId="2"/>
     <tableColumn id="3" name="description"/>
-    <tableColumn id="4" name="example" dataDxfId="7"/>
-    <tableColumn id="5" name="etc" dataDxfId="6"/>
+    <tableColumn id="4" name="example" dataDxfId="1"/>
+    <tableColumn id="5" name="etc" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,7 +710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,7 +745,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -1096,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1123,150 +1131,150 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1321,63 +1329,63 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
@@ -1386,55 +1394,55 @@
         <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1447,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1460,43 +1468,43 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/cmu/SurePark/SurePark_Database.xlsx
+++ b/cmu/SurePark/SurePark_Database.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\SA\IChallenge\IChallenge\cmu\SurePark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeheonkim/Documents/Project/SW Architect/Documents/Github/cmu/SurePark/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
     <sheet name="GARAGES" sheetId="2" r:id="rId2"/>
     <sheet name="RESERVATIONS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,35 +91,363 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>registerationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{registerationTime:Date()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{userEmail:'gildong@lge.com'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save user ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save user Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify driver, attentant and owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save user name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save user email address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Save user registeration date/time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save user nick name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gracePeriod value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save garage name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{garageName:'surePark'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garageNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garage ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{garageNumber:1234}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save 4 digit (ex.1001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of parking slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{slotNumber:4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status of the each parking slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{slotStatus: {"Open", "Reserved", "Broken", "Occupied"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update time of parking slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{updateTime:{Date("2016:06:21-15:23:00"), Date(), Date(), Date()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gracePeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gracePeriod value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{gracePeriod:90}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parking fee per hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{parkingFee:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garageIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garage IP address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{garageIP:'127.0.0.1'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAvailable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If this garage available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{isAvailable:True}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user id who are made reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{userID:'Jack'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{reservationTime:Date("2016:06:01-08:00")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cardInfo:'1111-2222-3333-4444'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{confirmInformation:'A08'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{reservationStatus:'waiting', reservationStatus:'cancelled'} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting, parked, cancelled, leaved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{parkingTime:Date("2016:06:01-08:00:00")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{leaveTime:Date("2016:06:01-08:00:00")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{chargingFee:15}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservationStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usingGarage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation date/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmation number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking fee per hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garage name to park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot numer to park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave date/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking date/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dollar unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dollar unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dollar unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">same the user id in users collection </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">it will use this value when the garage is not available. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>usingSlot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>registerationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{registerationTime:Date()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parkingTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID</t>
+    <t>slotStatus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,327 +455,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{userEmail:'gildong@lge.com'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save user ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save user Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classify driver, attentant and owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save user name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save user email address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Save user registeration date/time </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save user nick name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gracePeriod value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garageName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save garage name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{garageName:'surePark'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garageNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garage ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{garageNumber:1234}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save 4 digit (ex.1001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slotNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of parking slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{slotNumber:4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slotStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status of the each parking slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{slotStatus: {"Open", "Reserved", "Broken", "Occupied"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update time of parking slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{updateTime:{Date("2016:06:21-15:23:00"), Date(), Date(), Date()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gracePeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gracePeriod value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{gracePeriod:90}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parkingFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parking fee per hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{parkingFee:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garageIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garage IP address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{garageIP:'127.0.0.1'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAvailable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If this garage available</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{isAvailable:True}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user id who are made reservation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{userID:'Jack'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{reservationTime:Date("2016:06:01-08:00")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{cardInfo:'1111-2222-3333-4444'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{confirmInformation:'A08'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{reservationStatus:'waiting', reservationStatus:'cancelled'} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waiting, parked, cancelled, leaved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{parkingTime:Date("2016:06:01-08:00:00")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{leaveTime:Date("2016:06:01-08:00:00")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{chargingFee:15}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirmInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservationStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usingGarage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargingFee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation date/time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirmation number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parking fee per hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>garage name to park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot numer to park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave date/time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parking date/time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minute unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minute unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dollar unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dollar unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dollar unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">same the user id in users collection </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">it will use this value when the garage is not available. </t>
+    <t>garage number tp park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usingGarageNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +539,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -654,8 +674,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B2:F14" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B2:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="B2:F15" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:F15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name" dataDxfId="3"/>
     <tableColumn id="2" name="type" dataDxfId="2"/>
@@ -713,9 +733,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -748,9 +768,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -960,17 +980,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -984,40 +1004,40 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1025,14 +1045,14 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1040,52 +1060,52 @@
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="34" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="4"/>
@@ -1104,20 +1124,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.75" customWidth="1"/>
-    <col min="5" max="5" width="33.25" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1131,150 +1151,150 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1289,22 +1309,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
-    <col min="6" max="6" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,193 +1338,206 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="34" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
